--- a/documents/general/atlas/AtlasNotes.xlsx
+++ b/documents/general/atlas/AtlasNotes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_YES_2023-05-28\workspace\SosExamples\documents\general\atlas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFBAED9-775C-4BE5-9AE2-0CEC4F869DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614B71B0-DB11-419C-8B8F-BD7FB8BB391B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3525" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Title</t>
   </si>
@@ -72,9 +72,6 @@
     <t xml:space="preserve">After creating/editing a concept list, The Concept Sets tab points to the edit UX and there doen't seem to be any widget to go back to the list of existing concept sets.  </t>
   </si>
   <si>
-    <t>ConceptsSets</t>
-  </si>
-  <si>
     <t>Cohort definition list goes away</t>
   </si>
   <si>
@@ -82,6 +79,15 @@
   </si>
   <si>
     <t>CohortDefinition</t>
+  </si>
+  <si>
+    <t>Export as list of IDs</t>
+  </si>
+  <si>
+    <t>dbDiagnostics uses a list of CONCEPT_ID values.  It would be nice if we could export just the IDs as a list</t>
+  </si>
+  <si>
+    <t>ConceptSets</t>
   </si>
 </sst>
 </file>
@@ -429,9 +435,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -499,18 +507,29 @@
         <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="4" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>18</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
